--- a/roll_data.xlsx
+++ b/roll_data.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -440,10 +440,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -491,11 +491,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Af2007</t>
+          <t>Bd1018</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5016.351591883335</v>
+        <v>12498</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bc1018</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19362</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bc1018</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19444</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bf1019</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/roll_data.xlsx
+++ b/roll_data.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD98"/>
@@ -524,6 +524,513 @@
           <t>Bf1019</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>4786</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bc1019</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>19517</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bd1019</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bf1020</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19475</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bf1020</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15673</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bd1020</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12851</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bf1021</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12712</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bc1021</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12835</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Bd1021</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bd1022</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12586</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bf1022</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12746</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bc1022</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13218</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bf1023</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11689</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bc1023</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bd1023</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10894</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bf1024</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15376</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bc1024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bf1027</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>17175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Bd1028</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15469</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Bc1028</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15309</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Af1028</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>15410</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Bf1029</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>18272</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bc1029</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>18206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Bd1029</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>18407</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Bf1010</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16415</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Bc1026</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bf1030</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>16530</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Bc1030</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16694</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Bd1030</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>14429</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Bd1026</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Bd1026</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Bd1031</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>13724</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Bc1031</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>13985</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Bf1031</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14124</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Bd1032</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>14129</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Bc1032</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14407</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Bf1032</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>14596</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Bf1011</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12592</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bf1011</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>13583</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Bc1033</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>13304</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Bf1033</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>13618</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Bf1034</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>11185</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Bc1034</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>11256</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Bd1034</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12854</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Bf1017</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>15806</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Bd1011</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>13459</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Bf1035</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Bf1037</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11197</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Bd1037</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10981</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Bd1037</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10984</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Bc1035</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Bc1038</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
